--- a/hh_depistage.xlsx
+++ b/hh_depistage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="311">
   <si>
     <t>patient_code</t>
   </si>
@@ -109,9 +109,6 @@
     <t>MCH/HCHM/ST02047</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST01322</t>
-  </si>
-  <si>
     <t>SMA/CSSM/ST00945</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>CAP/CMSO/ST01149</t>
   </si>
   <si>
-    <t>PIG/HOBP/ST00837</t>
-  </si>
-  <si>
     <t>STM/CSPP/ST02015</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
     <t>39b0a68c-9967-4fdb-848d-d695de701872</t>
   </si>
   <si>
-    <t>9690bc06-0c1c-47f1-abe2-2e3e31d9dc2a</t>
-  </si>
-  <si>
     <t>32f244db-855d-4233-afe1-2128b979dd67</t>
   </si>
   <si>
@@ -638,18 +629,6 @@
   </si>
   <si>
     <t>ea24e5ad-3325-415c-bc1c-1eb9d443d387</t>
-  </si>
-  <si>
-    <t>5880f361-1ea1-4080-8635-086a39b5f480</t>
-  </si>
-  <si>
-    <t>e7342832-18c1-438f-8b52-72ff971a2536</t>
-  </si>
-  <si>
-    <t>62df03f7-3460-4c68-be5c-66ce488b97d2</t>
-  </si>
-  <si>
-    <t>2e3ca877-e2c8-4fdb-a2d0-0fbf513d5005</t>
   </si>
   <si>
     <t>1d0203cf-bb99-4a0b-8357-7dbe38d33cd1</t>
@@ -1325,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,22 +1344,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1391,22 +1370,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1417,22 +1396,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1443,22 +1422,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1469,22 +1448,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1495,22 +1474,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1521,22 +1500,22 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1547,22 +1526,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1573,22 +1552,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1599,22 +1578,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1625,22 +1604,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1651,22 +1630,22 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1677,22 +1656,22 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1703,22 +1682,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1729,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1755,22 +1734,22 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1781,22 +1760,22 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1807,22 +1786,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1833,22 +1812,22 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1859,22 +1838,22 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1885,22 +1864,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1911,22 +1890,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1937,22 +1916,22 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1963,22 +1942,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1989,22 +1968,22 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2015,22 +1994,22 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2041,22 +2020,22 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2067,22 +2046,22 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2093,22 +2072,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2119,22 +2098,22 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2145,22 +2124,22 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2171,22 +2150,22 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2197,22 +2176,22 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2223,22 +2202,22 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2249,22 +2228,22 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2275,22 +2254,22 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2301,22 +2280,22 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2327,22 +2306,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2353,22 +2332,22 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2379,22 +2358,22 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2405,22 +2384,22 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2431,22 +2410,22 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2457,22 +2436,22 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2483,22 +2462,22 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2509,22 +2488,22 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2535,22 +2514,22 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2561,22 +2540,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2587,22 +2566,22 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2613,22 +2592,22 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2639,22 +2618,22 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2665,22 +2644,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2691,22 +2670,22 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2717,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2743,22 +2722,22 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2769,22 +2748,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2795,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2821,22 +2800,22 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2847,22 +2826,22 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2873,22 +2852,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2899,22 +2878,22 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2925,22 +2904,22 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2951,22 +2930,22 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2977,22 +2956,22 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3003,22 +2982,22 @@
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3029,22 +3008,22 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3055,22 +3034,22 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3081,22 +3060,22 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3107,22 +3086,22 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3133,22 +3112,22 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3159,22 +3138,22 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3185,22 +3164,22 @@
         <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3211,22 +3190,22 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3237,22 +3216,22 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3263,22 +3242,22 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3289,22 +3268,22 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3315,22 +3294,22 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3341,22 +3320,22 @@
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3367,22 +3346,22 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3393,22 +3372,22 @@
         <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3419,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3439,19 +3418,19 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3462,22 +3441,22 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3488,22 +3467,22 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3514,22 +3493,22 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3540,22 +3519,22 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3566,22 +3545,22 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3592,22 +3571,22 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3618,22 +3597,22 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3644,22 +3623,22 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3670,22 +3649,22 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3696,22 +3675,22 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3722,22 +3701,22 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3748,22 +3727,22 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3774,22 +3753,22 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3800,22 +3779,22 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3826,22 +3805,22 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3852,22 +3831,22 @@
         <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3878,22 +3857,22 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3904,22 +3883,22 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3930,22 +3909,22 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3956,22 +3935,22 @@
         <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3982,22 +3961,22 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4008,22 +3987,22 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H104" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4031,51 +4010,51 @@
         <v>31</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F105" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E106" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F106" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4083,103 +4062,103 @@
         <v>32</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F108" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H110" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4187,77 +4166,77 @@
         <v>33</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B112">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4265,77 +4244,77 @@
         <v>34</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E114" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H114" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E115" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F115" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F116" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H116" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4343,155 +4322,155 @@
         <v>35</v>
       </c>
       <c r="B117">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E118" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G118" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B121">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F121" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H121" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B122">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4499,129 +4478,129 @@
         <v>37</v>
       </c>
       <c r="B123">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B124">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E124" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G124" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E125" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F125" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G125" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B126">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E126" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G126" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E127" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G127" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H127" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4629,155 +4608,155 @@
         <v>39</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E128" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G128" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H128" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E129" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F129" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H129" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B130">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G130" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H130" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E131" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H131" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F132" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G132" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H132" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H133" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4785,25 +4764,25 @@
         <v>41</v>
       </c>
       <c r="B134">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E134" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F134" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H134" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4811,129 +4790,129 @@
         <v>41</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H135" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E136" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F136" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H136" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F137" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G137" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H137" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E138" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F138" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B139">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F139" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G139" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H139" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4941,493 +4920,493 @@
         <v>43</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B141">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G141" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B142">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G142" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E143" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F143" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G143" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H143" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E144" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F144" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B145">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F145" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G145" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H145" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E146" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F146" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G146" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H146" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B147">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G147" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E148" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F148" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G148" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F149" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G149" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H149" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E150" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F150" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H150" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B151">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F151" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G151" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H151" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B152">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
         <v>74</v>
       </c>
       <c r="E152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G152" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D153" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F153" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H153" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B154">
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E154" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F154" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G154" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H154" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B155">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E155" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F155" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G155" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H155" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E156" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F156" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G156" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H156" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B157">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E157" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G157" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H157" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E158" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F158" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H158" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5435,25 +5414,25 @@
         <v>46</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G159" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5461,519 +5440,519 @@
         <v>46</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D160" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E160" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F160" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H160" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B161">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D161" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F161" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H161" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D162" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F162" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G162" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H162" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B163">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D163" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F163" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H163" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D164" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F164" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H164" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B165">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D165" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B166">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H166" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>56</v>
       </c>
       <c r="D167" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E167" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F167" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G167" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H167" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E168" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F168" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G168" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B169">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G169" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H169" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B170">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D170" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F170" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G170" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H170" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D171" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E171" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F171" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G171" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H171" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D172" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E172" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F172" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G172" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H172" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B173">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D173" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E173" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F173" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G173" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H173" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D174" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E174" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F174" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G174" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H174" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B175">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D175" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E175" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F175" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G175" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H175" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D176" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E176" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F176" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G176" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H176" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B177">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D177" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E177" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F177" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G177" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H177" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E178" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F178" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G178" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H178" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B179">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D179" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E179" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F179" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G179" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H179" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5981,103 +5960,103 @@
         <v>8</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D180" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E180" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F180" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G180" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H180" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E181" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F181" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H181" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B182">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D182" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E182" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F182" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G182" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H182" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B183">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D183" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E183" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F183" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G183" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H183" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6085,545 +6064,545 @@
         <v>48</v>
       </c>
       <c r="B184">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D184" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E184" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F184" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G184" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H184" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D185" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E185" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F185" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G185" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H185" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B186">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D186" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E186" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F186" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G186" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H186" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B187">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D187" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G187" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H187" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B188">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E188" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F188" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G188" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H188" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B189">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D189" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E189" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F189" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G189" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H189" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D190" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E190" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F190" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H190" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D191" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F191" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G191" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H191" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B192">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D192" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E192" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F192" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G192" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H192" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B193">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D193" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E193" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F193" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G193" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H193" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B194">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E194" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G194" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H194" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B195">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E195" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F195" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G195" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H195" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B196">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D196" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F196" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G196" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H196" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B197">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D197" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E197" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F197" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G197" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H197" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B198">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E198" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F198" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G198" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H198" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B199">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D199" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F199" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G199" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H199" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B200">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D200" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F200" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G200" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H200" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B201">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E201" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F201" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G201" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H201" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B202">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C202" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D202" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E202" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F202" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G202" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H202" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D203" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E203" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F203" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G203" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H203" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B204">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D204" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E204" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F204" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G204" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H204" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6631,25 +6610,25 @@
         <v>50</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D205" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E205" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F205" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G205" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H205" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6657,207 +6636,207 @@
         <v>50</v>
       </c>
       <c r="B206">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D206" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F206" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G206" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H206" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B207">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D207" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E207" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G207" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H207" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D208" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E208" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F208" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G208" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H208" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B209">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D209" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E209" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F209" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G209" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H209" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D210" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E210" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F210" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G210" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H210" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D211" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E211" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F211" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G211" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H211" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D212" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E212" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G212" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H212" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B213">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C213" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E213" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F213" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G213" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H213" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6865,25 +6844,25 @@
         <v>53</v>
       </c>
       <c r="B214">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D214" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E214" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F214" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G214" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H214" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6891,25 +6870,25 @@
         <v>53</v>
       </c>
       <c r="B215">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D215" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E215" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F215" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G215" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H215" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6917,285 +6896,155 @@
         <v>53</v>
       </c>
       <c r="B216">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D216" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F216" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G216" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H216" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C217" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D217" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E217" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F217" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G217" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H217" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B218">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D218" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E218" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F218" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G218" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H218" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D219" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E219" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F219" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G219" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H219" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B220">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D220" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E220" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F220" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G220" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H220" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D221" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E221" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F221" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G221" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H221" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>47</v>
-      </c>
-      <c r="B222">
-        <v>66</v>
-      </c>
-      <c r="C222" t="s">
-        <v>65</v>
-      </c>
-      <c r="D222" t="s">
-        <v>83</v>
-      </c>
-      <c r="E222" t="s">
-        <v>59</v>
-      </c>
-      <c r="F222" t="s">
-        <v>59</v>
-      </c>
-      <c r="G222" t="s">
-        <v>308</v>
-      </c>
-      <c r="H222" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
-        <v>47</v>
-      </c>
-      <c r="B223">
-        <v>24</v>
-      </c>
-      <c r="C223" t="s">
-        <v>57</v>
-      </c>
-      <c r="D223" t="s">
-        <v>77</v>
-      </c>
-      <c r="E223" t="s">
-        <v>59</v>
-      </c>
-      <c r="F223" t="s">
-        <v>59</v>
-      </c>
-      <c r="G223" t="s">
-        <v>309</v>
-      </c>
-      <c r="H223" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224">
-        <v>12</v>
-      </c>
-      <c r="C224" t="s">
-        <v>56</v>
-      </c>
-      <c r="D224" t="s">
-        <v>68</v>
-      </c>
-      <c r="E224" t="s">
-        <v>60</v>
-      </c>
-      <c r="F224" t="s">
-        <v>85</v>
-      </c>
-      <c r="G224" t="s">
-        <v>310</v>
-      </c>
-      <c r="H224" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>19</v>
-      </c>
-      <c r="B225">
-        <v>9</v>
-      </c>
-      <c r="C225" t="s">
-        <v>56</v>
-      </c>
-      <c r="D225" t="s">
-        <v>68</v>
-      </c>
-      <c r="E225" t="s">
-        <v>60</v>
-      </c>
-      <c r="F225" t="s">
-        <v>85</v>
-      </c>
-      <c r="G225" t="s">
-        <v>311</v>
-      </c>
-      <c r="H225" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226">
-        <v>2</v>
-      </c>
-      <c r="C226" t="s">
-        <v>56</v>
-      </c>
-      <c r="D226" t="s">
-        <v>84</v>
-      </c>
-      <c r="E226" t="s">
-        <v>59</v>
-      </c>
-      <c r="F226" t="s">
-        <v>59</v>
-      </c>
-      <c r="G226" t="s">
-        <v>312</v>
-      </c>
-      <c r="H226" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/hh_depistage.xlsx
+++ b/hh_depistage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="332">
   <si>
     <t>patient_code</t>
   </si>
@@ -43,9 +43,6 @@
     <t>PAP/OMFP/ST04635</t>
   </si>
   <si>
-    <t>PAP/CMSP/ST00614</t>
-  </si>
-  <si>
     <t>CAP/CDSF/ST01936</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
     <t>PAP/FONP/ST01064</t>
   </si>
   <si>
+    <t>CAP/CDSF/ST01118</t>
+  </si>
+  <si>
+    <t>MON/POZS/ST00492</t>
+  </si>
+  <si>
     <t>MON/POZS/ST00477</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>CAP/CMSO/ST01149</t>
   </si>
   <si>
-    <t>STM/CSPP/ST02015</t>
+    <t>SMA/CSSM/ST00769</t>
   </si>
   <si>
     <t>STM/CSPP/ST02013</t>
@@ -136,6 +139,9 @@
     <t>PIG/CSSR/ST00056</t>
   </si>
   <si>
+    <t>PAP/GCHO/ST08034</t>
+  </si>
+  <si>
     <t>MON/POZS/ST00784</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>PAP/NPFS/ST01290</t>
   </si>
   <si>
+    <t>MON/POZS/ST00576</t>
+  </si>
+  <si>
     <t>PAP/CMSP/ST00904</t>
   </si>
   <si>
@@ -163,18 +172,21 @@
     <t>STM/CSPP/ST02197</t>
   </si>
   <si>
+    <t>CAP/CALT/ST00214</t>
+  </si>
+  <si>
     <t>SMA/CSSM/ST00427</t>
   </si>
   <si>
     <t>PAP/NPFS/ST04149</t>
   </si>
   <si>
+    <t>SMA/CSSM/ST01108</t>
+  </si>
+  <si>
     <t>CAP/CMBV/ST03584</t>
   </si>
   <si>
-    <t>CAP/CDSF/ST03305</t>
-  </si>
-  <si>
     <t>CAP/CMSO/ST02371</t>
   </si>
   <si>
@@ -187,18 +199,18 @@
     <t>5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -310,21 +322,6 @@
     <t>8d27c412-eb63-4c12-8028-01685897b7fe</t>
   </si>
   <si>
-    <t>4028f0c0-9084-4ad0-89ba-c357e89f25d1</t>
-  </si>
-  <si>
-    <t>5a35bebf-f73a-46c2-859f-41eea76f6878</t>
-  </si>
-  <si>
-    <t>23b31b6c-d631-4152-bebb-6080bb54428a</t>
-  </si>
-  <si>
-    <t>ce533c31-8a8b-4c67-a92b-1aab3dd13439</t>
-  </si>
-  <si>
-    <t>47387ea8-c151-4fa0-8dcb-65e93fe1a0a3</t>
-  </si>
-  <si>
     <t>8f1a649b-98a2-4956-9fa4-57dc584f6c58</t>
   </si>
   <si>
@@ -379,6 +376,18 @@
     <t>bd94f24e-eec8-48a2-8018-757d5a8644f0</t>
   </si>
   <si>
+    <t>2cf10cc4-a31c-44f7-8142-312f5ad4264c</t>
+  </si>
+  <si>
+    <t>082fe94b-6afa-4044-ae15-087ba9215caf</t>
+  </si>
+  <si>
+    <t>8f4105d8-7dde-41ad-be16-7314426e21ce</t>
+  </si>
+  <si>
+    <t>e066ff8b-b46e-4f03-9702-26eb16022b0e</t>
+  </si>
+  <si>
     <t>44d47207-528e-466f-9e13-a68c0e99d46b</t>
   </si>
   <si>
@@ -466,15 +475,6 @@
     <t>b36bb1f0-7d2a-4c68-bc3e-7144717a3d3d</t>
   </si>
   <si>
-    <t>5dbbd202-9f2e-4aec-b7e0-e7889543a471</t>
-  </si>
-  <si>
-    <t>20e5e8be-0b92-4eeb-8ce5-89e5ef4cd10f</t>
-  </si>
-  <si>
-    <t>579951dc-bd1b-4efb-a4f0-a579f74a221d</t>
-  </si>
-  <si>
     <t>778c729f-f901-4efb-98f4-b08e6460a276</t>
   </si>
   <si>
@@ -583,6 +583,12 @@
     <t>39b0a68c-9967-4fdb-848d-d695de701872</t>
   </si>
   <si>
+    <t>0e620af7-7694-49d9-9a9d-7349e9d30806</t>
+  </si>
+  <si>
+    <t>355a356a-6220-4261-9ed6-0f84239304a7</t>
+  </si>
+  <si>
     <t>32f244db-855d-4233-afe1-2128b979dd67</t>
   </si>
   <si>
@@ -631,12 +637,12 @@
     <t>ea24e5ad-3325-415c-bc1c-1eb9d443d387</t>
   </si>
   <si>
+    <t>c5ee62fd-70bc-4940-91d8-d27dcf17a45b</t>
+  </si>
+  <si>
     <t>1d0203cf-bb99-4a0b-8357-7dbe38d33cd1</t>
   </si>
   <si>
-    <t>5ffe1a49-bc4b-429d-bbd0-ea7e87f99c08</t>
-  </si>
-  <si>
     <t>63023667-2524-4426-b154-cd609b9c9253</t>
   </si>
   <si>
@@ -667,6 +673,42 @@
     <t>5bd689af-754b-4ada-999e-6ff1b35abe97</t>
   </si>
   <si>
+    <t>d439bef4-7282-49e0-a622-d832ec9bed75</t>
+  </si>
+  <si>
+    <t>629a45d3-98e8-4c23-a4a9-ea639d82acce</t>
+  </si>
+  <si>
+    <t>a02b9da7-cab3-4c04-8fdd-ad3c08984707</t>
+  </si>
+  <si>
+    <t>0bd5a50b-e801-4975-9aa5-b44bdd072181</t>
+  </si>
+  <si>
+    <t>9edcb475-a42e-4d62-ba33-6df3bda96bbd</t>
+  </si>
+  <si>
+    <t>a0a583bd-259b-4a9a-9b1c-fe44e4d48416</t>
+  </si>
+  <si>
+    <t>9e666fe0-32f0-4b55-b0dc-21d2e098765c</t>
+  </si>
+  <si>
+    <t>d92ef5a5-9ccd-426e-b482-5d66347c210f</t>
+  </si>
+  <si>
+    <t>040f88bd-04d0-4e4f-b810-dbcb0c837e37</t>
+  </si>
+  <si>
+    <t>74523329-831d-4d32-9106-75055920de41</t>
+  </si>
+  <si>
+    <t>641d3d26-fd92-4b35-a150-5077de01bf4a</t>
+  </si>
+  <si>
+    <t>0c12626f-d54f-4762-8503-e0aed03023e9</t>
+  </si>
+  <si>
     <t>9ca88760-f494-4466-8c49-f71b84270abe</t>
   </si>
   <si>
@@ -685,9 +727,6 @@
     <t>c5eb7ac4-7384-42c3-9e91-c07e1ed50dc7</t>
   </si>
   <si>
-    <t>c557a388-392e-4d57-8205-6765438b5e3a</t>
-  </si>
-  <si>
     <t>73a96fbb-f37a-454d-8f5d-dfd5dc0b3be7</t>
   </si>
   <si>
@@ -697,6 +736,15 @@
     <t>c406db42-1b50-4d2a-bdd6-9df40d3eced2</t>
   </si>
   <si>
+    <t>cad7ca6e-2cbc-4a0b-852c-94b197e3a995</t>
+  </si>
+  <si>
+    <t>39406378-72ae-44f3-bea6-b487e1efb670</t>
+  </si>
+  <si>
+    <t>5eacde45-5003-4ceb-8c1d-0a0fa66b30a6</t>
+  </si>
+  <si>
     <t>f4334663-bc4b-4323-9449-61ce47923a6d</t>
   </si>
   <si>
@@ -808,6 +856,9 @@
     <t>ddfd38e1-b054-4083-b28c-2cfd661f2dec</t>
   </si>
   <si>
+    <t>1ad84ad5-9670-4210-b01a-dcb24c83e14a</t>
+  </si>
+  <si>
     <t>ff2dca17-0c62-435a-b899-278adfddb3d0</t>
   </si>
   <si>
@@ -862,6 +913,15 @@
     <t>fec45137-5c28-4282-99a7-c95c9412c7ee</t>
   </si>
   <si>
+    <t>c250dfb9-db17-444e-9f47-40d55b368833</t>
+  </si>
+  <si>
+    <t>bc8c063d-6239-401d-83af-32aa3a78c60c</t>
+  </si>
+  <si>
+    <t>f8107781-bf11-41c8-bea3-c2dad7bb8649</t>
+  </si>
+  <si>
     <t>e4ecbc34-aea3-42cf-973e-e4311fc8fce9</t>
   </si>
   <si>
@@ -889,6 +949,9 @@
     <t>cab78d4d-ed41-4fa6-9202-304555c71167</t>
   </si>
   <si>
+    <t>9c8fad11-72c5-44c4-bf1a-f9ee1b56f2eb</t>
+  </si>
+  <si>
     <t>cffcd406-2897-45ed-8706-2a203f5e405c</t>
   </si>
   <si>
@@ -907,9 +970,6 @@
     <t>a33ae12e-b26d-450b-9384-35658b307337</t>
   </si>
   <si>
-    <t>060a8c92-3c73-447a-82a8-4933046be38d</t>
-  </si>
-  <si>
     <t>52844052-d7cd-4976-a02f-fdcda1f4bde7</t>
   </si>
   <si>
@@ -917,6 +977,9 @@
   </si>
   <si>
     <t>84fcaec6-c17c-429d-a065-882afbb81ae8</t>
+  </si>
+  <si>
+    <t>b4a61215-b53a-44a0-b2e0-9d2b183296fe</t>
   </si>
   <si>
     <t>e1a433c3-480d-4431-8bbd-99a1878759f8</t>
@@ -1304,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,22 +1407,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1370,22 +1433,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1396,22 +1459,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1422,22 +1485,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1448,22 +1511,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1474,22 +1537,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1500,22 +1563,22 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1526,22 +1589,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1552,22 +1615,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1578,22 +1641,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1604,22 +1667,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1630,22 +1693,22 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1653,25 +1716,25 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1679,155 +1742,155 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1835,25 +1898,25 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1861,51 +1924,51 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1913,25 +1976,25 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1939,25 +2002,25 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1965,25 +2028,25 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1991,25 +2054,25 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2017,51 +2080,51 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2069,25 +2132,25 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2095,2668 +2158,2668 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H59" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H60" t="s">
-        <v>307</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H63" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H64" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H65" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B66">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H66" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
         <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H67" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H68" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H69" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H71" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H73" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H74" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H75" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H76" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>30</v>
-      </c>
-      <c r="C78" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H78" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H79" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B80">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H80" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H81" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H82" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H83" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H84" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H85" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H87" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H88" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H89" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B90">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H91" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H92" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H93" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H94" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H95" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H96" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H97" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B98">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G98" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H98" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H99" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H100" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H101" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H102" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H103" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G104" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H104" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G105" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H105" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B106">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G106" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H106" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H107" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B108">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G108" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H108" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G109" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H109" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E110" t="s">
         <v>58</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H110" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B111">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G111" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H111" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H112" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H113" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F114" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G114" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H114" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B115">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G115" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H115" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F116" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G116" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H116" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G117" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H117" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G118" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H118" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G119" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H119" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B120">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G120" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H120" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B121">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G121" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H121" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D122" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E122" t="s">
         <v>58</v>
       </c>
       <c r="F122" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G122" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H122" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
         <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G123" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H123" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F124" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G124" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H124" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B125">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D125" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G125" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H125" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D126" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F126" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H126" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B127">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H127" t="s">
-        <v>57</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F128" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G128" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H128" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F129" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G129" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H129" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H130" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D131" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F131" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G131" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F132" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G132" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H132" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D133" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E133" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H133" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4764,25 +4827,25 @@
         <v>41</v>
       </c>
       <c r="B134">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F134" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H134" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4790,597 +4853,597 @@
         <v>41</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H135" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B136">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E136" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F136" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H136" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B137">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
         <v>58</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F137" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H137" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D138" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F138" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H138" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D139" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F139" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H139" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B140">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F140" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H140" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D141" t="s">
         <v>70</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H141" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H142" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H143" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B144">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
         <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E144" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F144" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G144" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H144" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B145">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E145" t="s">
         <v>58</v>
       </c>
       <c r="F145" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G145" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H145" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B146">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E146" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F146" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G146" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H146" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B147">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D147" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G147" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H147" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F148" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G148" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H148" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G149" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H149" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B150">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D150" t="s">
         <v>74</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F150" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G150" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H150" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D151" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G151" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H151" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B152">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F152" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G152" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H152" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D153" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E153" t="s">
         <v>58</v>
       </c>
       <c r="F153" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G153" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H153" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D154" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F154" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G154" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H154" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D155" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E155" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F155" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G155" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H155" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D156" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E156" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F156" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G156" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H156" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D157" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E157" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F157" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G157" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H157" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5388,701 +5451,701 @@
         <v>45</v>
       </c>
       <c r="B158">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F158" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H158" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B159">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D159" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H159" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B160">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D160" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F160" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G160" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H160" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B161">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D161" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F161" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H161" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D162" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F162" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G162" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H162" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D163" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F163" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G163" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H163" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B164">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>62</v>
       </c>
       <c r="D164" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F164" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H164" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B165">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D165" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G165" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H165" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F166" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G166" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H166" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D167" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F167" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G167" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H167" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D168" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F168" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G168" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H168" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D169" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E169" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F169" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G169" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H169" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C170" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D170" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F170" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G170" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H170" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B171">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D171" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E171" t="s">
         <v>58</v>
       </c>
       <c r="F171" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G171" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H171" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B172">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C172" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D172" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F172" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G172" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H172" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B173">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C173" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D173" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F173" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G173" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H173" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D174" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E174" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F174" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H174" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D175" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F175" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G175" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H175" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F176" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G176" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H176" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D177" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E177" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F177" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G177" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H177" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D178" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E178" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F178" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G178" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H178" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D179" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E179" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F179" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G179" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H179" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B180">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D180" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E180" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F180" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G180" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H180" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B181">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D181" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F181" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G181" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H181" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B182">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D182" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F182" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H182" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B183">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D183" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E183" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F183" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H183" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B184">
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D184" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F184" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G184" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H184" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6090,727 +6153,727 @@
         <v>23</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D185" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E185" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F185" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G185" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H185" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B186">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D186" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E186" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F186" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G186" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H186" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B187">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D187" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E187" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F187" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G187" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H187" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B188">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D188" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E188" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F188" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G188" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H188" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B189">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D189" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E189" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F189" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G189" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H189" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B190">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D190" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E190" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F190" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G190" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H190" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B191">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D191" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E191" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F191" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G191" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H191" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D192" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E192" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F192" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G192" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H192" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B193">
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D193" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E193" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F193" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G193" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H193" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D194" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E194" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F194" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G194" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H194" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B195">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D195" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G195" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H195" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B196">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D196" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E196" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F196" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G196" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H196" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B197">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D197" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E197" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G197" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H197" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D198" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F198" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G198" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H198" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B199">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D199" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F199" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G199" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H199" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D200" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F200" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G200" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H200" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B201">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F201" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G201" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H201" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B202">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D202" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G202" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H202" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B203">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D203" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F203" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G203" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H203" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F204" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G204" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H204" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D205" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E205" t="s">
         <v>58</v>
       </c>
       <c r="F205" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G205" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H205" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E206" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F206" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G206" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H206" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D207" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E207" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F207" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G207" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H207" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B208">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D208" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E208" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F208" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G208" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H208" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B209">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D209" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E209" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F209" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G209" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H209" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D210" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F210" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G210" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H210" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B211">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E211" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F211" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G211" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H211" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D212" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E212" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F212" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G212" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H212" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6818,25 +6881,25 @@
         <v>52</v>
       </c>
       <c r="B213">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D213" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G213" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H213" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6844,25 +6907,25 @@
         <v>53</v>
       </c>
       <c r="B214">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D214" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E214" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F214" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G214" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H214" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6870,181 +6933,620 @@
         <v>53</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D215" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E215" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F215" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G215" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H215" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D216" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E216" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F216" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G216" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H216" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B217">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D217" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E217" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F217" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G217" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H217" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B218">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C218" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D218" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E218" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F218" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G218" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H218" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B219">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D219" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E219" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F219" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G219" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H219" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B220">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D220" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E220" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F220" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G220" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H220" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
+        <v>54</v>
+      </c>
+      <c r="B221">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>58</v>
+      </c>
+      <c r="D221" t="s">
+        <v>70</v>
+      </c>
+      <c r="E221" t="s">
+        <v>61</v>
+      </c>
+      <c r="F221" t="s">
+        <v>87</v>
+      </c>
+      <c r="G221" t="s">
+        <v>309</v>
+      </c>
+      <c r="H221" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>54</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" t="s">
+        <v>70</v>
+      </c>
+      <c r="E222" t="s">
+        <v>61</v>
+      </c>
+      <c r="F222" t="s">
+        <v>87</v>
+      </c>
+      <c r="G222" t="s">
+        <v>310</v>
+      </c>
+      <c r="H222" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223">
+        <v>54</v>
+      </c>
+      <c r="D223" t="s">
+        <v>70</v>
+      </c>
+      <c r="E223" t="s">
+        <v>64</v>
+      </c>
+      <c r="F223" t="s">
+        <v>64</v>
+      </c>
+      <c r="G223" t="s">
+        <v>311</v>
+      </c>
+      <c r="H223" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224" t="s">
+        <v>70</v>
+      </c>
+      <c r="E224" t="s">
+        <v>58</v>
+      </c>
+      <c r="F224" t="s">
+        <v>64</v>
+      </c>
+      <c r="G224" t="s">
+        <v>312</v>
+      </c>
+      <c r="H224" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>56</v>
+      </c>
+      <c r="B225">
         <v>19</v>
       </c>
-      <c r="B221">
+      <c r="C225" t="s">
+        <v>66</v>
+      </c>
+      <c r="D225" t="s">
+        <v>70</v>
+      </c>
+      <c r="E225" t="s">
+        <v>64</v>
+      </c>
+      <c r="F225" t="s">
+        <v>64</v>
+      </c>
+      <c r="G225" t="s">
+        <v>313</v>
+      </c>
+      <c r="H225" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>56</v>
+      </c>
+      <c r="B226">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>61</v>
+      </c>
+      <c r="D226" t="s">
+        <v>70</v>
+      </c>
+      <c r="E226" t="s">
+        <v>64</v>
+      </c>
+      <c r="F226" t="s">
+        <v>64</v>
+      </c>
+      <c r="G226" t="s">
+        <v>314</v>
+      </c>
+      <c r="H226" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227">
+        <v>63</v>
+      </c>
+      <c r="C227" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>70</v>
+      </c>
+      <c r="E227" t="s">
+        <v>64</v>
+      </c>
+      <c r="F227" t="s">
+        <v>64</v>
+      </c>
+      <c r="G227" t="s">
+        <v>315</v>
+      </c>
+      <c r="H227" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>56</v>
+      </c>
+      <c r="B228">
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>59</v>
+      </c>
+      <c r="D228" t="s">
+        <v>70</v>
+      </c>
+      <c r="E228" t="s">
+        <v>58</v>
+      </c>
+      <c r="F228" t="s">
+        <v>64</v>
+      </c>
+      <c r="G228" t="s">
+        <v>316</v>
+      </c>
+      <c r="H228" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>58</v>
+      </c>
+      <c r="D229" t="s">
+        <v>70</v>
+      </c>
+      <c r="E229" t="s">
+        <v>61</v>
+      </c>
+      <c r="F229" t="s">
+        <v>87</v>
+      </c>
+      <c r="G229" t="s">
+        <v>317</v>
+      </c>
+      <c r="H229" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" t="s">
+        <v>58</v>
+      </c>
+      <c r="F230" t="s">
+        <v>64</v>
+      </c>
+      <c r="G230" t="s">
+        <v>318</v>
+      </c>
+      <c r="H230" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" t="s">
+        <v>70</v>
+      </c>
+      <c r="E231" t="s">
+        <v>58</v>
+      </c>
+      <c r="F231" t="s">
+        <v>64</v>
+      </c>
+      <c r="G231" t="s">
+        <v>319</v>
+      </c>
+      <c r="H231" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" t="s">
+        <v>70</v>
+      </c>
+      <c r="E232" t="s">
+        <v>58</v>
+      </c>
+      <c r="F232" t="s">
+        <v>64</v>
+      </c>
+      <c r="G232" t="s">
+        <v>320</v>
+      </c>
+      <c r="H232" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" t="s">
+        <v>70</v>
+      </c>
+      <c r="E233" t="s">
+        <v>61</v>
+      </c>
+      <c r="F233" t="s">
+        <v>87</v>
+      </c>
+      <c r="G233" t="s">
+        <v>321</v>
+      </c>
+      <c r="H233" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234">
+        <v>66</v>
+      </c>
+      <c r="C234" t="s">
+        <v>67</v>
+      </c>
+      <c r="D234" t="s">
+        <v>85</v>
+      </c>
+      <c r="E234" t="s">
+        <v>64</v>
+      </c>
+      <c r="F234" t="s">
+        <v>64</v>
+      </c>
+      <c r="G234" t="s">
+        <v>322</v>
+      </c>
+      <c r="H234" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235">
+        <v>24</v>
+      </c>
+      <c r="C235" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" t="s">
+        <v>79</v>
+      </c>
+      <c r="E235" t="s">
+        <v>64</v>
+      </c>
+      <c r="F235" t="s">
+        <v>64</v>
+      </c>
+      <c r="G235" t="s">
+        <v>323</v>
+      </c>
+      <c r="H235" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>58</v>
+      </c>
+      <c r="D236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E236" t="s">
+        <v>61</v>
+      </c>
+      <c r="F236" t="s">
+        <v>87</v>
+      </c>
+      <c r="G236" t="s">
+        <v>324</v>
+      </c>
+      <c r="H236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" t="s">
+        <v>70</v>
+      </c>
+      <c r="E237" t="s">
+        <v>61</v>
+      </c>
+      <c r="F237" t="s">
+        <v>87</v>
+      </c>
+      <c r="G237" t="s">
+        <v>325</v>
+      </c>
+      <c r="H237" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238">
         <v>2</v>
       </c>
-      <c r="C221" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" t="s">
-        <v>82</v>
-      </c>
-      <c r="E221" t="s">
-        <v>57</v>
-      </c>
-      <c r="F221" t="s">
-        <v>57</v>
-      </c>
-      <c r="G221" t="s">
-        <v>305</v>
-      </c>
-      <c r="H221" t="s">
-        <v>57</v>
+      <c r="C238" t="s">
+        <v>58</v>
+      </c>
+      <c r="D238" t="s">
+        <v>86</v>
+      </c>
+      <c r="E238" t="s">
+        <v>64</v>
+      </c>
+      <c r="F238" t="s">
+        <v>64</v>
+      </c>
+      <c r="G238" t="s">
+        <v>326</v>
+      </c>
+      <c r="H238" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/hh_depistage.xlsx
+++ b/hh_depistage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="370">
   <si>
     <t>patient_code</t>
   </si>
@@ -40,9 +40,15 @@
     <t>non_consent_reason</t>
   </si>
   <si>
+    <t>CAP/CMSO/ST01518</t>
+  </si>
+  <si>
     <t>PAP/OMFP/ST04635</t>
   </si>
   <si>
+    <t>GRO/HAMG/ST02294</t>
+  </si>
+  <si>
     <t>CAP/CDSF/ST01936</t>
   </si>
   <si>
@@ -67,7 +73,7 @@
     <t>MON/POZS/ST00477</t>
   </si>
   <si>
-    <t>SMA/CSSM/ST00630</t>
+    <t>CAP/CALT/ST02007</t>
   </si>
   <si>
     <t>CAP/CALT/ST00637</t>
@@ -76,6 +82,9 @@
     <t>PAP/NPFS/ST02252</t>
   </si>
   <si>
+    <t>CAP/CMSO/ST00235</t>
+  </si>
+  <si>
     <t>MCH/HCHM/ST01577</t>
   </si>
   <si>
@@ -85,15 +94,15 @@
     <t>GON/HCRE/ST00346</t>
   </si>
   <si>
-    <t>PAP/HSFS/ST01028</t>
+    <t>GRO/HAMG/ST02624</t>
+  </si>
+  <si>
+    <t>LIM/HOSJ/ST02324</t>
   </si>
   <si>
     <t>CAP/CALT/ST01044</t>
   </si>
   <si>
-    <t>MON/POZS/ST00221</t>
-  </si>
-  <si>
     <t>MON/POZS/ST00499</t>
   </si>
   <si>
@@ -103,18 +112,15 @@
     <t>STM/CSPP/ST01884</t>
   </si>
   <si>
+    <t>CAP/CDSF/ST03005</t>
+  </si>
+  <si>
     <t>PIL/HOEP/ST02556</t>
   </si>
   <si>
     <t>CAP/CMCD/ST01293</t>
   </si>
   <si>
-    <t>MCH/HCHM/ST02047</t>
-  </si>
-  <si>
-    <t>SMA/CSSM/ST00945</t>
-  </si>
-  <si>
     <t>CAP/CMCD/ST00533</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
     <t>PAP/CSPL/ST00478</t>
   </si>
   <si>
-    <t>PIG/CSSR/ST00056</t>
-  </si>
-  <si>
     <t>PAP/GCHO/ST08034</t>
   </si>
   <si>
@@ -151,7 +154,7 @@
     <t>PAP/FONP/ST02037</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST01290</t>
+    <t>GRO/HAMG/ST03084</t>
   </si>
   <si>
     <t>MON/POZS/ST00576</t>
@@ -172,10 +175,16 @@
     <t>STM/CSPP/ST02197</t>
   </si>
   <si>
+    <t>LIM/HOSJ/ST02937</t>
+  </si>
+  <si>
     <t>CAP/CALT/ST00214</t>
   </si>
   <si>
-    <t>SMA/CSSM/ST00427</t>
+    <t>CAP/CALT/ST02501</t>
+  </si>
+  <si>
+    <t>GON/CSFA/ST01287</t>
   </si>
   <si>
     <t>PAP/NPFS/ST04149</t>
@@ -184,6 +193,9 @@
     <t>SMA/CSSM/ST01108</t>
   </si>
   <si>
+    <t>CAP/CALT/ST00190</t>
+  </si>
+  <si>
     <t>CAP/CMBV/ST03584</t>
   </si>
   <si>
@@ -193,15 +205,15 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -226,9 +238,18 @@
     <t>9</t>
   </si>
   <si>
+    <t>CAP/CMSO/00228</t>
+  </si>
+  <si>
     <t>//</t>
   </si>
   <si>
+    <t>GRO/HAMG/02294</t>
+  </si>
+  <si>
+    <t>GRo/HAMG/02294</t>
+  </si>
+  <si>
     <t>pil/Hoep/st02147</t>
   </si>
   <si>
@@ -238,16 +259,7 @@
     <t>pil/Hoep/02563</t>
   </si>
   <si>
-    <t>pap/Npfs/st03040</t>
-  </si>
-  <si>
-    <t>pap/Npfs/st01290</t>
-  </si>
-  <si>
-    <t>pap/npfs/st01290</t>
-  </si>
-  <si>
-    <t>pap/npfs/st03040</t>
+    <t>CAP/CMS0/00228</t>
   </si>
   <si>
     <t>pap/cmsp/st00904</t>
@@ -271,6 +283,9 @@
     <t>stm/CSPP/00685</t>
   </si>
   <si>
+    <t>Gon/CSFA/st01396</t>
+  </si>
+  <si>
     <t>Stm/cspp/00685</t>
   </si>
   <si>
@@ -286,6 +301,15 @@
     <t>positif</t>
   </si>
   <si>
+    <t>d59e9e54-fbc0-4374-9e68-0b0f4a55e241</t>
+  </si>
+  <si>
+    <t>e50dae0c-3996-4b90-a631-efe58700d689</t>
+  </si>
+  <si>
+    <t>ad30b3ac-ffd9-4607-b59c-392b868d8a31</t>
+  </si>
+  <si>
     <t>d53be55e-20d9-48f2-8ccb-248c1d9b8ac5</t>
   </si>
   <si>
@@ -322,6 +346,18 @@
     <t>8d27c412-eb63-4c12-8028-01685897b7fe</t>
   </si>
   <si>
+    <t>82134e81-49aa-4b26-9493-51f237aaacf0</t>
+  </si>
+  <si>
+    <t>fff4c646-1c1f-4f9b-8f63-5c82d59f36e6</t>
+  </si>
+  <si>
+    <t>0ed97a02-47e9-4c13-b591-492aa46f312a</t>
+  </si>
+  <si>
+    <t>10bd40ea-2a2d-489c-83d3-6ffd8440bba0</t>
+  </si>
+  <si>
     <t>8f1a649b-98a2-4956-9fa4-57dc584f6c58</t>
   </si>
   <si>
@@ -400,22 +436,31 @@
     <t>3d75dd50-6fdc-4200-89ba-eb63abd08003</t>
   </si>
   <si>
-    <t>9365eb48-3e89-443c-9f4c-93ae28338679</t>
-  </si>
-  <si>
-    <t>7b015e30-2918-453c-8813-95c9fd7a5c0f</t>
-  </si>
-  <si>
-    <t>3bc1dfeb-7d4b-4e55-88af-80f1a861dc6e</t>
-  </si>
-  <si>
-    <t>1916cbd5-fd1a-40bb-a09f-dec9f8ac6954</t>
-  </si>
-  <si>
-    <t>7da5a9ba-f004-4d60-b574-c1062f452b71</t>
-  </si>
-  <si>
-    <t>661b7e49-914a-4c4f-860a-8e5043cfeda2</t>
+    <t>7132cbb1-5e71-4272-89db-019b747e4603</t>
+  </si>
+  <si>
+    <t>75e0f450-99c9-4380-9654-c07e3f8f3f35</t>
+  </si>
+  <si>
+    <t>bb765403-5d67-4a3c-b439-cb1956a8ce95</t>
+  </si>
+  <si>
+    <t>dc229d5c-d572-4337-aac3-c50f796c1545</t>
+  </si>
+  <si>
+    <t>06663d97-b6be-4fe6-9bad-ea20d1fb2bf4</t>
+  </si>
+  <si>
+    <t>9dccbbca-9c1e-4061-b5fa-75d3ce7d4771</t>
+  </si>
+  <si>
+    <t>547c4e47-3d4a-49ba-bcc2-6c521e087569</t>
+  </si>
+  <si>
+    <t>205d7852-7db5-4726-8d86-8fda334f6cd3</t>
+  </si>
+  <si>
+    <t>1f1aaf3c-71f8-4c15-a26e-f81c4c3f792c</t>
   </si>
   <si>
     <t>24ba1358-ac08-4967-81b8-638499baf2f4</t>
@@ -442,6 +487,21 @@
     <t>d3ec82a6-10bb-4333-8692-5ce813e3e715</t>
   </si>
   <si>
+    <t>8148bab9-a9a5-4491-b977-7ad03621bdb1</t>
+  </si>
+  <si>
+    <t>fa6d3014-54a0-45bc-95bb-d5bf9acc7269</t>
+  </si>
+  <si>
+    <t>1a2d8bd7-ec61-4757-aa90-3371f4717130</t>
+  </si>
+  <si>
+    <t>712ce85d-acd9-48ea-8d18-8afa0f0a71cf</t>
+  </si>
+  <si>
+    <t>a7ca725e-4b1d-42d3-aa42-4b7a40374555</t>
+  </si>
+  <si>
     <t>e65cb63e-da0e-46e5-8a32-031778e4d5b6</t>
   </si>
   <si>
@@ -475,13 +535,31 @@
     <t>b36bb1f0-7d2a-4c68-bc3e-7144717a3d3d</t>
   </si>
   <si>
-    <t>778c729f-f901-4efb-98f4-b08e6460a276</t>
-  </si>
-  <si>
-    <t>3736de87-d9f0-42db-a35b-ff8d883481ba</t>
-  </si>
-  <si>
-    <t>2e67ca78-ad85-4aff-92b1-852de1f58096</t>
+    <t>28a2ab43-ce06-4c55-b785-886a525eede4</t>
+  </si>
+  <si>
+    <t>ca63e8be-5568-4b95-a925-d8d8b9572dea</t>
+  </si>
+  <si>
+    <t>f7b1acea-5c14-48dc-8d12-c1cf38a9fe56</t>
+  </si>
+  <si>
+    <t>f7cae26b-9410-441c-83df-9b54e0a8d75a</t>
+  </si>
+  <si>
+    <t>4ee10401-0980-4c72-906c-244868d6e956</t>
+  </si>
+  <si>
+    <t>73f293b7-e138-4708-bf04-b93908c43cb0</t>
+  </si>
+  <si>
+    <t>285b914d-e750-4c47-91ee-56bf887ba59e</t>
+  </si>
+  <si>
+    <t>2b5e44a6-474c-45c2-8a65-1d49fe740d75</t>
+  </si>
+  <si>
+    <t>10eecbff-9cf2-4534-805f-c7d4e94fc880</t>
   </si>
   <si>
     <t>76fac3b8-42a4-4f3f-a853-90f5c6a755db</t>
@@ -499,12 +577,6 @@
     <t>04eb8aae-7007-4816-9791-6f6f442bb86f</t>
   </si>
   <si>
-    <t>d8358ddf-53cd-4de7-a2ed-894ff0cf2c47</t>
-  </si>
-  <si>
-    <t>b73e5754-fcdf-4f82-8e58-a3fb26cec0e4</t>
-  </si>
-  <si>
     <t>67384a0d-7625-47c6-9ed8-f68b553ea95e</t>
   </si>
   <si>
@@ -523,6 +595,12 @@
     <t>9ed70d40-deda-4852-b06e-9878a42772db</t>
   </si>
   <si>
+    <t>2839c344-5e1c-47d7-b99d-6325b6a25f4f</t>
+  </si>
+  <si>
+    <t>2c750af0-7149-4e03-8e62-a63b2e1e8440</t>
+  </si>
+  <si>
     <t>e20e76cb-530f-4310-9adf-d423c8d4b3d6</t>
   </si>
   <si>
@@ -568,31 +646,28 @@
     <t>57f8a35a-d006-4d17-9070-104ee9e7bd6f</t>
   </si>
   <si>
-    <t>7b89232f-ead8-4690-953b-3a12287aa0a7</t>
-  </si>
-  <si>
-    <t>48147b43-af5d-4b50-b6d9-46b0522da51f</t>
-  </si>
-  <si>
-    <t>e50f3ebb-e410-43f4-b68d-d2f8cd453e89</t>
-  </si>
-  <si>
-    <t>8cbbabb4-9d18-4eed-98f9-74639ce60058</t>
-  </si>
-  <si>
-    <t>39b0a68c-9967-4fdb-848d-d695de701872</t>
-  </si>
-  <si>
     <t>0e620af7-7694-49d9-9a9d-7349e9d30806</t>
   </si>
   <si>
     <t>355a356a-6220-4261-9ed6-0f84239304a7</t>
   </si>
   <si>
-    <t>32f244db-855d-4233-afe1-2128b979dd67</t>
-  </si>
-  <si>
-    <t>98340875-9035-4672-a14e-2c2920a2e575</t>
+    <t>b65ae906-3fd8-4649-b923-43a687da9edc</t>
+  </si>
+  <si>
+    <t>94ec5ebe-2093-42b6-ba90-bf2296a45bf5</t>
+  </si>
+  <si>
+    <t>771457c4-2e07-4e4e-a9a0-4707519cdda3</t>
+  </si>
+  <si>
+    <t>46c0d95a-9dc5-46c0-a05d-34f975c9029c</t>
+  </si>
+  <si>
+    <t>37d8b6c2-26c8-4ad7-a7b7-4ebf9127aef5</t>
+  </si>
+  <si>
+    <t>532947de-f3c5-4492-a56b-9a58e7d8d1eb</t>
   </si>
   <si>
     <t>99267c63-c0ac-432c-86d1-7b194b49af5b</t>
@@ -646,7 +721,13 @@
     <t>63023667-2524-4426-b154-cd609b9c9253</t>
   </si>
   <si>
-    <t>542af6b2-a4fb-476b-a415-42b7b36e3512</t>
+    <t>fdb3f927-bbc3-4195-a541-94014faf13d2</t>
+  </si>
+  <si>
+    <t>203ddcd7-735f-4261-86ab-d76ca8863444</t>
+  </si>
+  <si>
+    <t>63328e38-0dfc-4a3f-988b-f7da2766166d</t>
   </si>
   <si>
     <t>69d23f71-d2bc-4efc-9192-67d8139db199</t>
@@ -655,24 +736,6 @@
     <t>269e6960-47cd-457a-bd83-6ea397edbca2</t>
   </si>
   <si>
-    <t>9a3275ac-1821-465e-a724-df4d4fa11c64</t>
-  </si>
-  <si>
-    <t>5ea0da35-09aa-4512-bc1f-ac50579eff73</t>
-  </si>
-  <si>
-    <t>01262082-bab6-4f20-b183-983e55dfedfa</t>
-  </si>
-  <si>
-    <t>7fb9ddf3-474e-40e9-ac63-96264830a538</t>
-  </si>
-  <si>
-    <t>64cd506b-df91-47c7-8f0e-0cf3a11cca57</t>
-  </si>
-  <si>
-    <t>5bd689af-754b-4ada-999e-6ff1b35abe97</t>
-  </si>
-  <si>
     <t>d439bef4-7282-49e0-a622-d832ec9bed75</t>
   </si>
   <si>
@@ -727,13 +790,28 @@
     <t>c5eb7ac4-7384-42c3-9e91-c07e1ed50dc7</t>
   </si>
   <si>
-    <t>73a96fbb-f37a-454d-8f5d-dfd5dc0b3be7</t>
-  </si>
-  <si>
-    <t>c401bc52-7e4d-44d8-a257-3f8a56075508</t>
-  </si>
-  <si>
-    <t>c406db42-1b50-4d2a-bdd6-9df40d3eced2</t>
+    <t>0c69b20b-5dca-45ec-90f0-e8364bfdab36</t>
+  </si>
+  <si>
+    <t>7076f7aa-9289-45a3-8401-bfb1dae65595</t>
+  </si>
+  <si>
+    <t>a0845a05-32ba-4c0c-8160-d1113792cb2b</t>
+  </si>
+  <si>
+    <t>2147db15-1bbe-4783-8640-b6d08e9e8de4</t>
+  </si>
+  <si>
+    <t>886c6a3b-320d-4cc8-9641-41db3f7ddbcc</t>
+  </si>
+  <si>
+    <t>493733cd-4fa9-44eb-bfef-ee1a3d13c91d</t>
+  </si>
+  <si>
+    <t>bc546202-a03d-4590-ba3d-3c7ffca309ce</t>
+  </si>
+  <si>
+    <t>62c2efdc-9eb0-4b37-8f57-9f06fec20c53</t>
   </si>
   <si>
     <t>cad7ca6e-2cbc-4a0b-852c-94b197e3a995</t>
@@ -745,24 +823,6 @@
     <t>5eacde45-5003-4ceb-8c1d-0a0fa66b30a6</t>
   </si>
   <si>
-    <t>f4334663-bc4b-4323-9449-61ce47923a6d</t>
-  </si>
-  <si>
-    <t>d59ccdaa-3dbd-47f0-bf78-14e6dda514ff</t>
-  </si>
-  <si>
-    <t>7e6d85fb-ae5d-42ba-8f1a-5dc55c458327</t>
-  </si>
-  <si>
-    <t>ae566c06-7ca1-4468-9e56-b6da75a3dd4c</t>
-  </si>
-  <si>
-    <t>4ca7be3e-7a27-4e92-88e2-5e0413ccc716</t>
-  </si>
-  <si>
-    <t>52fb170a-4c3f-4bd5-a2ed-dc409d251397</t>
-  </si>
-  <si>
     <t>b86d2227-2637-4f56-876d-aa7d7142bad5</t>
   </si>
   <si>
@@ -820,6 +880,9 @@
     <t>5ac64133-00fa-4655-8fee-62166005d01e</t>
   </si>
   <si>
+    <t>368ceab6-a258-4bb0-b49f-67a97d3818fc</t>
+  </si>
+  <si>
     <t>ca2f3a97-d649-48c4-8133-0f5f7167b9ea</t>
   </si>
   <si>
@@ -832,12 +895,6 @@
     <t>d449016d-beb2-4378-aec8-6d9b473bcdb1</t>
   </si>
   <si>
-    <t>c52745c9-ac42-41b5-81cd-7b358e01f5bb</t>
-  </si>
-  <si>
-    <t>c7d884bc-b8df-4b64-9ab6-56a69ed3bd84</t>
-  </si>
-  <si>
     <t>7aca6fcc-0488-44ba-974a-66b3715103a7</t>
   </si>
   <si>
@@ -850,12 +907,15 @@
     <t>737a833e-dbd9-4906-bd70-b271b5083013</t>
   </si>
   <si>
-    <t>195d5fe5-4e47-4bb2-89db-24bdd470c0f5</t>
-  </si>
-  <si>
     <t>ddfd38e1-b054-4083-b28c-2cfd661f2dec</t>
   </si>
   <si>
+    <t>585a0547-e200-4669-a580-7deb5fdf2c7e</t>
+  </si>
+  <si>
+    <t>7da3a133-693b-439a-99de-8abb3af97027</t>
+  </si>
+  <si>
     <t>1ad84ad5-9670-4210-b01a-dcb24c83e14a</t>
   </si>
   <si>
@@ -913,6 +973,33 @@
     <t>fec45137-5c28-4282-99a7-c95c9412c7ee</t>
   </si>
   <si>
+    <t>e589f96f-8d67-4582-ae1e-7924a57a3152</t>
+  </si>
+  <si>
+    <t>4e983da7-a706-4997-92af-91ddbc34a1a7</t>
+  </si>
+  <si>
+    <t>b349eecc-d314-4baa-9eb8-3705db4e9a9d</t>
+  </si>
+  <si>
+    <t>cad2a80e-9e7e-42a8-b19d-cae41d0e1203</t>
+  </si>
+  <si>
+    <t>15b67f25-e05a-421f-8de4-d533b3542c07</t>
+  </si>
+  <si>
+    <t>85ef6bbb-532a-4be7-8768-c431ab0738f5</t>
+  </si>
+  <si>
+    <t>4ba0481e-a979-4358-bb90-9fd9c35dc015</t>
+  </si>
+  <si>
+    <t>c685743b-293f-4ba2-9e0d-44b754b666a3</t>
+  </si>
+  <si>
+    <t>c0fe3e52-0830-4a8b-931e-06389e7f81fb</t>
+  </si>
+  <si>
     <t>c250dfb9-db17-444e-9f47-40d55b368833</t>
   </si>
   <si>
@@ -922,10 +1009,13 @@
     <t>f8107781-bf11-41c8-bea3-c2dad7bb8649</t>
   </si>
   <si>
-    <t>e4ecbc34-aea3-42cf-973e-e4311fc8fce9</t>
-  </si>
-  <si>
-    <t>2a9ce712-58c8-46f6-a4f9-1a62552cc442</t>
+    <t>f1d430b4-6c3d-4034-a213-dd0c4eaa120f</t>
+  </si>
+  <si>
+    <t>4c7fbf80-ea8f-4cb2-8dfd-8649dccdbaca</t>
+  </si>
+  <si>
+    <t>8cde9584-7798-49e0-8a5b-1c759b481ab5</t>
   </si>
   <si>
     <t>1d1d145e-f4d6-4619-9b74-918ca8f8b21b</t>
@@ -940,6 +1030,12 @@
     <t>8c7ba04b-1e5c-4892-8381-009d84d76d1d</t>
   </si>
   <si>
+    <t>3067b7a2-d818-40b7-b45f-6e35653e6c1c</t>
+  </si>
+  <si>
+    <t>82125daf-486a-4ed7-b77c-37757048638a</t>
+  </si>
+  <si>
     <t>6b3f1bd2-ee63-478a-87f1-770346b31ec5</t>
   </si>
   <si>
@@ -952,6 +1048,15 @@
     <t>9c8fad11-72c5-44c4-bf1a-f9ee1b56f2eb</t>
   </si>
   <si>
+    <t>734b8839-f922-415c-8366-a637049a0d56</t>
+  </si>
+  <si>
+    <t>86a9a20b-fd54-42c0-8d1f-779c37905960</t>
+  </si>
+  <si>
+    <t>9fe15bf8-20e7-439c-b018-4fb7591fd9ad</t>
+  </si>
+  <si>
     <t>cffcd406-2897-45ed-8706-2a203f5e405c</t>
   </si>
   <si>
@@ -1003,10 +1108,19 @@
     <t>la mere ne veut pas</t>
   </si>
   <si>
-    <t>Decede</t>
-  </si>
-  <si>
-    <t>refus du parent</t>
+    <t>mere non adhérente ,le site refuse de faire le test</t>
+  </si>
+  <si>
+    <t>ne s intereesse pas</t>
+  </si>
+  <si>
+    <t>ne s interrese pas</t>
+  </si>
+  <si>
+    <t>ne s interesse</t>
+  </si>
+  <si>
+    <t>ne s interesse pas</t>
   </si>
   <si>
     <t>refus</t>
@@ -1367,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,25 +1518,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1430,25 +1544,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1456,259 +1570,259 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1716,25 +1830,25 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1742,51 +1856,51 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1794,103 +1908,103 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1898,25 +2012,25 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1924,51 +2038,51 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1976,155 +2090,155 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2132,51 +2246,51 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2184,181 +2298,181 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2366,25 +2480,25 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2392,25 +2506,25 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2418,25 +2532,25 @@
         <v>17</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2444,103 +2558,103 @@
         <v>17</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2548,103 +2662,103 @@
         <v>18</v>
       </c>
       <c r="B46">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2652,25 +2766,25 @@
         <v>19</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2678,25 +2792,25 @@
         <v>19</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2704,25 +2818,25 @@
         <v>19</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2730,77 +2844,77 @@
         <v>19</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2808,103 +2922,103 @@
         <v>20</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H59" t="s">
-        <v>328</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2912,103 +3026,103 @@
         <v>21</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G62" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3016,874 +3130,874 @@
         <v>22</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H68" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H70" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G74" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F77" t="s">
+        <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H77" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H80" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H81" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H82" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H85" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H86" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H90" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H91" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F92" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G92" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H92" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F93" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G93" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H93" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H94" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H96" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G97" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3891,25 +4005,25 @@
         <v>31</v>
       </c>
       <c r="B98">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H98" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3917,155 +4031,155 @@
         <v>31</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H99" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H100" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H101" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H102" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H103" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B104">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H104" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4073,25 +4187,25 @@
         <v>33</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4099,25 +4213,25 @@
         <v>33</v>
       </c>
       <c r="B106">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H106" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4125,25 +4239,25 @@
         <v>33</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H107" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4154,48 +4268,48 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H108" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F109" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4206,22 +4320,22 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4229,1047 +4343,1047 @@
         <v>34</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F111" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G111" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F113" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G113" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G114" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H114" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B115">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F115" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H115" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F116" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G116" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H116" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B117">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F117" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G117" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B118">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G118" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B119">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E119" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F119" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H119" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B120">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H120" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H121" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H122" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B123">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E123" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F123" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H123" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F124" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H124" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B125">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F125" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H125" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E126" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F126" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H126" t="s">
-        <v>329</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D127" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H127" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F128" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G128" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H128" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F129" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H130" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G131" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H131" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F132" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G132" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H132" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F133" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G133" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H133" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F134" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G134" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H134" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E135" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F135" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G135" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H135" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B136">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G136" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H136" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G137" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H137" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B138">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E138" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F138" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G138" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H138" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F139" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G139" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H139" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E140" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F140" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G140" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H140" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F141" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G141" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H141" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F142" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H142" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D143" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F143" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H143" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B144">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G144" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H144" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F145" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G145" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H145" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B146">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G146" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H146" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B147">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E147" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H147" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E148" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F148" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G148" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H148" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B149">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F149" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G149" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H149" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F150" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G150" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H150" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
         <v>62</v>
@@ -5278,614 +5392,614 @@
         <v>75</v>
       </c>
       <c r="E151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F151" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H151" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B152">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E152" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F152" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G152" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H152" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B153">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E153" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F153" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G153" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H153" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E154" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F154" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G154" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H154" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E155" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F155" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G155" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H155" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B156">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E156" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F156" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G156" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H156" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B157">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E157" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F157" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G157" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H157" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B158">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F158" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G158" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H158" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>62</v>
       </c>
       <c r="D159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F159" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G159" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H159" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D160" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E160" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F160" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G160" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H160" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B161">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D161" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E161" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G161" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H161" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B162">
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D162" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E162" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F162" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G162" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H162" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E163" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F163" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G163" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H163" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B164">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
         <v>62</v>
       </c>
       <c r="D164" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F164" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G164" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H164" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D165" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E165" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F165" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G165" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H165" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D166" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F166" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G166" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H166" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E167" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F167" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G167" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H167" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D168" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E168" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F168" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G168" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H168" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B169">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D169" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F169" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H169" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B170">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D170" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E170" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F170" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G170" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H170" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D171" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F171" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H171" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B172">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F172" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H172" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B173">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D173" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E173" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G173" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H173" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D174" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F174" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G174" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H174" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5893,545 +6007,545 @@
         <v>47</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G175" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H175" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B176">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D176" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E176" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F176" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G176" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H176" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B177">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D177" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F177" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G177" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H177" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D178" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E178" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F178" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G178" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H178" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B179">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D179" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E179" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F179" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G179" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H179" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B180">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D180" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E180" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F180" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G180" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H180" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E181" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F181" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G181" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H181" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B182">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F182" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G182" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H182" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B183">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E183" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F183" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G183" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H183" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184">
         <v>23</v>
       </c>
-      <c r="B184">
-        <v>15</v>
-      </c>
       <c r="C184" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E184" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F184" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G184" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H184" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B185">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E185" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G185" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H185" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186">
         <v>8</v>
       </c>
-      <c r="B186">
-        <v>10</v>
-      </c>
       <c r="C186" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F186" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G186" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H186" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B187">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C187" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F187" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G187" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H187" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E188" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F188" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G188" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H188" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B189">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E189" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F189" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G189" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H189" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B190">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D190" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E190" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G190" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H190" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B191">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E191" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F191" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G191" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H191" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B192">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D192" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E192" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F192" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G192" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H192" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E193" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F193" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G193" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H193" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B194">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D194" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E194" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F194" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G194" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H194" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B195">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D195" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E195" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F195" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G195" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H195" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6439,25 +6553,25 @@
         <v>51</v>
       </c>
       <c r="B196">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D196" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E196" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F196" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G196" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H196" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6465,51 +6579,51 @@
         <v>51</v>
       </c>
       <c r="B197">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D197" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E197" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F197" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G197" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H197" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E198" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F198" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G198" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H198" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6517,311 +6631,311 @@
         <v>51</v>
       </c>
       <c r="B199">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D199" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E199" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F199" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G199" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H199" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F200" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G200" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H200" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B201">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E201" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F201" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G201" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H201" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B202">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D202" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E202" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F202" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G202" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H202" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B203">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D203" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E203" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F203" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G203" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H203" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B204">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D204" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E204" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F204" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G204" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H204" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B205">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D205" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E205" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F205" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G205" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H205" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D206" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F206" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G206" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H206" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B207">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E207" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F207" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G207" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H207" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
         <v>10</v>
       </c>
-      <c r="B208">
-        <v>13</v>
-      </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D208" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E208" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F208" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G208" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H208" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B209">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E209" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F209" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G209" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H209" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B210">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C210" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D210" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E210" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F210" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G210" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H210" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6829,25 +6943,25 @@
         <v>52</v>
       </c>
       <c r="B211">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D211" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E211" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F211" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G211" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H211" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6855,698 +6969,1478 @@
         <v>52</v>
       </c>
       <c r="B212">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D212" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E212" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F212" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G212" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H212" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B213">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D213" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E213" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F213" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G213" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H213" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D214" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E214" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F214" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G214" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H214" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B215">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D215" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E215" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F215" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G215" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H215" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D216" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E216" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F216" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G216" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H216" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B217">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D217" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E217" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F217" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G217" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H217" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B218">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D218" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E218" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G218" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H218" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B219">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D219" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E219" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F219" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G219" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H219" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B220">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D220" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E220" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F220" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G220" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H220" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B221">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D221" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E221" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F221" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G221" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H221" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D222" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E222" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F222" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G222" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H222" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B223">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>62</v>
       </c>
       <c r="D223" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E223" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F223" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G223" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H223" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B224">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D224" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E224" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F224" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G224" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H224" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B225">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D225" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E225" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F225" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G225" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H225" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B226">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C226" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D226" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E226" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F226" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G226" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H226" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B227">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D227" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E227" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F227" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G227" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H227" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B228">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D228" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E228" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F228" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G228" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H228" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C229" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D229" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E229" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F229" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G229" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H229" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B230">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C230" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D230" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E230" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F230" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G230" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H230" t="s">
-        <v>331</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B231">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D231" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E231" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F231" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G231" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H231" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D232" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E232" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F232" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G232" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H232" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D233" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E233" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F233" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G233" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H233" t="s">
-        <v>64</v>
+        <v>367</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B234">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D234" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E234" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F234" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G234" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H234" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B235">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D235" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E235" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F235" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G235" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H235" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B236">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D236" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E236" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F236" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G236" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H236" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B237">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C237" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D237" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E237" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F237" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G237" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H237" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B238">
+        <v>60</v>
+      </c>
+      <c r="C238" t="s">
+        <v>69</v>
+      </c>
+      <c r="D238" t="s">
+        <v>75</v>
+      </c>
+      <c r="E238" t="s">
+        <v>68</v>
+      </c>
+      <c r="F238" t="s">
+        <v>68</v>
+      </c>
+      <c r="G238" t="s">
+        <v>331</v>
+      </c>
+      <c r="H238" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239">
+        <v>67</v>
+      </c>
+      <c r="C239" t="s">
+        <v>67</v>
+      </c>
+      <c r="D239" t="s">
+        <v>75</v>
+      </c>
+      <c r="E239" t="s">
+        <v>68</v>
+      </c>
+      <c r="F239" t="s">
+        <v>68</v>
+      </c>
+      <c r="G239" t="s">
+        <v>332</v>
+      </c>
+      <c r="H239" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240">
+        <v>16</v>
+      </c>
+      <c r="C240" t="s">
+        <v>62</v>
+      </c>
+      <c r="D240" t="s">
+        <v>75</v>
+      </c>
+      <c r="E240" t="s">
+        <v>63</v>
+      </c>
+      <c r="F240" t="s">
+        <v>92</v>
+      </c>
+      <c r="G240" t="s">
+        <v>333</v>
+      </c>
+      <c r="H240" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>52</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>62</v>
+      </c>
+      <c r="D241" t="s">
+        <v>75</v>
+      </c>
+      <c r="E241" t="s">
+        <v>62</v>
+      </c>
+      <c r="F241" t="s">
+        <v>68</v>
+      </c>
+      <c r="G241" t="s">
+        <v>334</v>
+      </c>
+      <c r="H241" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242">
+        <v>24</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>75</v>
+      </c>
+      <c r="E242" t="s">
+        <v>68</v>
+      </c>
+      <c r="F242" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" t="s">
+        <v>335</v>
+      </c>
+      <c r="H242" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243">
+        <v>66</v>
+      </c>
+      <c r="C243" t="s">
+        <v>66</v>
+      </c>
+      <c r="D243" t="s">
+        <v>88</v>
+      </c>
+      <c r="E243" t="s">
+        <v>68</v>
+      </c>
+      <c r="F243" t="s">
+        <v>68</v>
+      </c>
+      <c r="G243" t="s">
+        <v>336</v>
+      </c>
+      <c r="H243" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244">
+        <v>24</v>
+      </c>
+      <c r="C244" t="s">
+        <v>70</v>
+      </c>
+      <c r="D244" t="s">
+        <v>83</v>
+      </c>
+      <c r="E244" t="s">
+        <v>68</v>
+      </c>
+      <c r="F244" t="s">
+        <v>68</v>
+      </c>
+      <c r="G244" t="s">
+        <v>337</v>
+      </c>
+      <c r="H244" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245">
+        <v>40</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>75</v>
+      </c>
+      <c r="E245" t="s">
+        <v>68</v>
+      </c>
+      <c r="F245" t="s">
+        <v>68</v>
+      </c>
+      <c r="G245" t="s">
+        <v>338</v>
+      </c>
+      <c r="H245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
+        <v>62</v>
+      </c>
+      <c r="D246" t="s">
+        <v>89</v>
+      </c>
+      <c r="E246" t="s">
+        <v>63</v>
+      </c>
+      <c r="F246" t="s">
+        <v>94</v>
+      </c>
+      <c r="G246" t="s">
+        <v>339</v>
+      </c>
+      <c r="H246" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>57</v>
+      </c>
+      <c r="B247">
+        <v>46</v>
+      </c>
+      <c r="C247" t="s">
+        <v>66</v>
+      </c>
+      <c r="D247" t="s">
+        <v>75</v>
+      </c>
+      <c r="E247" t="s">
+        <v>68</v>
+      </c>
+      <c r="F247" t="s">
+        <v>68</v>
+      </c>
+      <c r="G247" t="s">
+        <v>340</v>
+      </c>
+      <c r="H247" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B248">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>62</v>
+      </c>
+      <c r="D248" t="s">
+        <v>75</v>
+      </c>
+      <c r="E248" t="s">
+        <v>63</v>
+      </c>
+      <c r="F248" t="s">
+        <v>92</v>
+      </c>
+      <c r="G248" t="s">
+        <v>341</v>
+      </c>
+      <c r="H248" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249">
         <v>2</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C249" t="s">
+        <v>62</v>
+      </c>
+      <c r="D249" t="s">
+        <v>75</v>
+      </c>
+      <c r="E249" t="s">
+        <v>63</v>
+      </c>
+      <c r="F249" t="s">
+        <v>92</v>
+      </c>
+      <c r="G249" t="s">
+        <v>342</v>
+      </c>
+      <c r="H249" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
         <v>58</v>
       </c>
-      <c r="D238" t="s">
-        <v>86</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="B250">
+        <v>54</v>
+      </c>
+      <c r="D250" t="s">
+        <v>75</v>
+      </c>
+      <c r="E250" t="s">
+        <v>68</v>
+      </c>
+      <c r="F250" t="s">
+        <v>68</v>
+      </c>
+      <c r="G250" t="s">
+        <v>343</v>
+      </c>
+      <c r="H250" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251">
+        <v>35</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>75</v>
+      </c>
+      <c r="E251" t="s">
+        <v>68</v>
+      </c>
+      <c r="F251" t="s">
+        <v>68</v>
+      </c>
+      <c r="G251" t="s">
+        <v>344</v>
+      </c>
+      <c r="H251" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>59</v>
+      </c>
+      <c r="B252">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>62</v>
+      </c>
+      <c r="D252" t="s">
+        <v>75</v>
+      </c>
+      <c r="E252" t="s">
+        <v>63</v>
+      </c>
+      <c r="F252" t="s">
+        <v>92</v>
+      </c>
+      <c r="G252" t="s">
+        <v>345</v>
+      </c>
+      <c r="H252" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>59</v>
+      </c>
+      <c r="B253">
+        <v>8</v>
+      </c>
+      <c r="C253" t="s">
+        <v>62</v>
+      </c>
+      <c r="D253" t="s">
+        <v>75</v>
+      </c>
+      <c r="E253" t="s">
+        <v>63</v>
+      </c>
+      <c r="F253" t="s">
+        <v>92</v>
+      </c>
+      <c r="G253" t="s">
+        <v>346</v>
+      </c>
+      <c r="H253" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>60</v>
+      </c>
+      <c r="B254">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>73</v>
+      </c>
+      <c r="D254" t="s">
+        <v>75</v>
+      </c>
+      <c r="E254" t="s">
+        <v>62</v>
+      </c>
+      <c r="F254" t="s">
+        <v>68</v>
+      </c>
+      <c r="G254" t="s">
+        <v>347</v>
+      </c>
+      <c r="H254" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255">
+        <v>19</v>
+      </c>
+      <c r="C255" t="s">
+        <v>70</v>
+      </c>
+      <c r="D255" t="s">
+        <v>75</v>
+      </c>
+      <c r="E255" t="s">
+        <v>68</v>
+      </c>
+      <c r="F255" t="s">
+        <v>68</v>
+      </c>
+      <c r="G255" t="s">
+        <v>348</v>
+      </c>
+      <c r="H255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>60</v>
+      </c>
+      <c r="B256">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>75</v>
+      </c>
+      <c r="E256" t="s">
+        <v>68</v>
+      </c>
+      <c r="F256" t="s">
+        <v>68</v>
+      </c>
+      <c r="G256" t="s">
+        <v>349</v>
+      </c>
+      <c r="H256" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257">
+        <v>63</v>
+      </c>
+      <c r="C257" t="s">
+        <v>69</v>
+      </c>
+      <c r="D257" t="s">
+        <v>75</v>
+      </c>
+      <c r="E257" t="s">
+        <v>68</v>
+      </c>
+      <c r="F257" t="s">
+        <v>68</v>
+      </c>
+      <c r="G257" t="s">
+        <v>350</v>
+      </c>
+      <c r="H257" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>60</v>
+      </c>
+      <c r="B258">
+        <v>16</v>
+      </c>
+      <c r="C258" t="s">
         <v>64</v>
       </c>
-      <c r="F238" t="s">
+      <c r="D258" t="s">
+        <v>75</v>
+      </c>
+      <c r="E258" t="s">
+        <v>62</v>
+      </c>
+      <c r="F258" t="s">
+        <v>68</v>
+      </c>
+      <c r="G258" t="s">
+        <v>351</v>
+      </c>
+      <c r="H258" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>60</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>62</v>
+      </c>
+      <c r="D259" t="s">
+        <v>75</v>
+      </c>
+      <c r="E259" t="s">
+        <v>63</v>
+      </c>
+      <c r="F259" t="s">
+        <v>92</v>
+      </c>
+      <c r="G259" t="s">
+        <v>352</v>
+      </c>
+      <c r="H259" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>61</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>62</v>
+      </c>
+      <c r="D260" t="s">
+        <v>75</v>
+      </c>
+      <c r="E260" t="s">
+        <v>62</v>
+      </c>
+      <c r="F260" t="s">
+        <v>68</v>
+      </c>
+      <c r="G260" t="s">
+        <v>353</v>
+      </c>
+      <c r="H260" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>61</v>
+      </c>
+      <c r="B261">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>62</v>
+      </c>
+      <c r="D261" t="s">
+        <v>75</v>
+      </c>
+      <c r="E261" t="s">
+        <v>62</v>
+      </c>
+      <c r="F261" t="s">
+        <v>68</v>
+      </c>
+      <c r="G261" t="s">
+        <v>354</v>
+      </c>
+      <c r="H261" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>61</v>
+      </c>
+      <c r="B262">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>62</v>
+      </c>
+      <c r="D262" t="s">
+        <v>75</v>
+      </c>
+      <c r="E262" t="s">
+        <v>62</v>
+      </c>
+      <c r="F262" t="s">
+        <v>68</v>
+      </c>
+      <c r="G262" t="s">
+        <v>355</v>
+      </c>
+      <c r="H262" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>54</v>
+      </c>
+      <c r="B263">
+        <v>8</v>
+      </c>
+      <c r="C263" t="s">
+        <v>62</v>
+      </c>
+      <c r="D263" t="s">
+        <v>75</v>
+      </c>
+      <c r="E263" t="s">
+        <v>63</v>
+      </c>
+      <c r="F263" t="s">
+        <v>92</v>
+      </c>
+      <c r="G263" t="s">
+        <v>356</v>
+      </c>
+      <c r="H263" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>49</v>
+      </c>
+      <c r="B264">
+        <v>66</v>
+      </c>
+      <c r="C264" t="s">
+        <v>71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>90</v>
+      </c>
+      <c r="E264" t="s">
+        <v>68</v>
+      </c>
+      <c r="F264" t="s">
+        <v>68</v>
+      </c>
+      <c r="G264" t="s">
+        <v>357</v>
+      </c>
+      <c r="H264" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>49</v>
+      </c>
+      <c r="B265">
+        <v>24</v>
+      </c>
+      <c r="C265" t="s">
         <v>64</v>
       </c>
-      <c r="G238" t="s">
-        <v>326</v>
-      </c>
-      <c r="H238" t="s">
-        <v>64</v>
+      <c r="D265" t="s">
+        <v>83</v>
+      </c>
+      <c r="E265" t="s">
+        <v>68</v>
+      </c>
+      <c r="F265" t="s">
+        <v>68</v>
+      </c>
+      <c r="G265" t="s">
+        <v>358</v>
+      </c>
+      <c r="H265" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>62</v>
+      </c>
+      <c r="D266" t="s">
+        <v>75</v>
+      </c>
+      <c r="E266" t="s">
+        <v>63</v>
+      </c>
+      <c r="F266" t="s">
+        <v>92</v>
+      </c>
+      <c r="G266" t="s">
+        <v>359</v>
+      </c>
+      <c r="H266" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267">
+        <v>9</v>
+      </c>
+      <c r="C267" t="s">
+        <v>62</v>
+      </c>
+      <c r="D267" t="s">
+        <v>75</v>
+      </c>
+      <c r="E267" t="s">
+        <v>63</v>
+      </c>
+      <c r="F267" t="s">
+        <v>92</v>
+      </c>
+      <c r="G267" t="s">
+        <v>360</v>
+      </c>
+      <c r="H267" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" t="s">
+        <v>62</v>
+      </c>
+      <c r="D268" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" t="s">
+        <v>68</v>
+      </c>
+      <c r="F268" t="s">
+        <v>68</v>
+      </c>
+      <c r="G268" t="s">
+        <v>361</v>
+      </c>
+      <c r="H268" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
